--- a/plots/students_leaderboard.xlsx
+++ b/plots/students_leaderboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/lukas_thede_bwedu_de/Documents/EML/ContDistCode/repsssl/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:40009_{A5E80501-7A6C-40E8-805F-9E81605A56A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{801DD31B-EC84-4058-8ADA-072C9A7C122C}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:40009_{A5E80501-7A6C-40E8-805F-9E81605A56A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70DD590A-19D2-48E7-AA96-841D96992144}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students_leaderboard" sheetId="1" r:id="rId1"/>
@@ -702,13 +702,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="17" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1064,10 +1066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O151"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1090,7 +1093,7 @@
     <col min="16" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1136,8 +1139,32 @@
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P1" s="6">
+        <f>MEDIAN(I13,I15,I17,I28,I29,I34,I35,I47,I48,I54,I63,I137,I138,I136)</f>
+        <v>97.5</v>
+      </c>
+      <c r="Q1" s="6">
+        <f>MEDIAN(I2,I32,I37,I42,I45,I55,I60,I71,I72,I73,I74,I78,I79,I80,I90,I91,I94,I99,I100,I102)</f>
+        <v>7.5</v>
+      </c>
+      <c r="R1" s="6">
+        <f>MEDIAN(I9,I10,I11,I12,I24,I25,I39,I43,I51,I77,I83,I86,I88,I98,I123,I128,I133,I135,I134,I140)</f>
+        <v>80</v>
+      </c>
+      <c r="S1" s="6">
+        <f>MEDIAN(I13,I14,I15,I16,I17,I28,I29,I33,I34,I35,I47,I48,I50,I54,I63,I64,I68,I136,I137,I138)</f>
+        <v>92.5</v>
+      </c>
+      <c r="T1" s="6">
+        <f>MEDIAN(I2,I6,I19,I26,I37,I70,I73,I85,I87,I89,I94,I97,I102,I106,I112,I113,I119,I122,I126,I130)</f>
+        <v>32.5</v>
+      </c>
+      <c r="U1" s="6">
+        <f>MEDIAN(I3,I23,I46,I56,I57,I59,I61,I67,I69,I76,I81,I82,I84,I92,I93,I103,I104,I105,I110,I115)</f>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1184,7 +1211,7 @@
         <v>3.2168000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -1231,7 +1258,7 @@
         <v>2.6901999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
@@ -1278,195 +1305,195 @@
         <v>3.2364999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
-        <v>59.88</v>
+        <v>208.2</v>
       </c>
       <c r="D5" s="2">
-        <v>77.596000000000004</v>
+        <v>75.195999999999998</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="2">
-        <v>1.6659999999999899</v>
+        <v>3.9639999999999902</v>
       </c>
       <c r="G5" s="2">
-        <v>0.39399999999999102</v>
+        <v>2.3419999999999899</v>
       </c>
       <c r="H5" s="2">
-        <v>1.1145999999999801</v>
+        <v>3.2356999999999898</v>
       </c>
       <c r="I5" s="2">
         <v>100</v>
       </c>
       <c r="J5" s="2">
-        <v>4.9859999999999998</v>
+        <v>7.2439999999999998</v>
       </c>
       <c r="K5" s="2">
-        <v>4.0979999999999999</v>
+        <v>6.4180000000000001</v>
       </c>
       <c r="L5" s="2">
-        <v>4.4037999999999897</v>
+        <v>6.9045999999999896</v>
       </c>
       <c r="M5" s="2">
-        <v>4.26</v>
+        <v>4.2160000000000002</v>
       </c>
       <c r="N5" s="2">
-        <v>2.8140000000000001</v>
+        <v>3.2559999999999998</v>
       </c>
       <c r="O5" s="2">
-        <v>3.2891999999999899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3.6688999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>194.03</v>
+      </c>
+      <c r="D6" s="2">
+        <v>82.789999999999907</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-0.47400000000000297</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-5.4640000000000102</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-1.5842000000000001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.6440000000000001</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.79199999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2.1360000000000001</v>
+      </c>
+      <c r="M6" s="2">
+        <v>8.1080000000000005</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2.44599999999999</v>
+      </c>
+      <c r="O6" s="2">
+        <v>3.7202000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>194.03</v>
+      </c>
+      <c r="D7" s="2">
+        <v>80.042000000000002</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-2.0859999999999901</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-84.01</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-6.9886999999999997</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.4420000000000002</v>
+      </c>
+      <c r="K7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.9107999999999901</v>
+      </c>
+      <c r="M7" s="2">
+        <v>84.016000000000005</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3.948</v>
+      </c>
+      <c r="O7" s="2">
+        <v>8.8994999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2">
-        <v>208.2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>75.195999999999998</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3.9639999999999902</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2.3419999999999899</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3.2356999999999898</v>
-      </c>
-      <c r="I6" s="2">
-        <v>100</v>
-      </c>
-      <c r="J6" s="2">
-        <v>7.2439999999999998</v>
-      </c>
-      <c r="K6" s="2">
-        <v>6.4180000000000001</v>
-      </c>
-      <c r="L6" s="2">
-        <v>6.9045999999999896</v>
-      </c>
-      <c r="M6" s="2">
-        <v>4.2160000000000002</v>
-      </c>
-      <c r="N6" s="2">
-        <v>3.2559999999999998</v>
-      </c>
-      <c r="O6" s="2">
-        <v>3.6688999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2">
-        <v>59.88</v>
-      </c>
-      <c r="D7" s="2">
-        <v>77.649999999999906</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.27599999999999</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.18799999999998801</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.94169999999998899</v>
-      </c>
-      <c r="I7" s="2">
-        <v>100</v>
-      </c>
-      <c r="J7" s="2">
-        <v>4.8439999999999896</v>
-      </c>
-      <c r="K7" s="2">
-        <v>4.4560000000000004</v>
-      </c>
-      <c r="L7" s="2">
-        <v>4.5957999999999997</v>
-      </c>
-      <c r="M7" s="2">
-        <v>4.306</v>
-      </c>
-      <c r="N7" s="2">
-        <v>3.28</v>
-      </c>
-      <c r="O7" s="2">
-        <v>3.6540999999999899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
-        <v>73.760000000000005</v>
+        <v>194.03</v>
       </c>
       <c r="D8" s="2">
-        <v>82.634</v>
+        <v>80.235999999999905</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
-        <v>0.993999999999999</v>
+        <v>-3.03</v>
       </c>
       <c r="G8" s="2">
-        <v>-0.219999999999998</v>
+        <v>-4.75</v>
       </c>
       <c r="H8" s="2">
-        <v>0.3977</v>
+        <v>-3.7407999999999899</v>
       </c>
       <c r="I8" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>3.556</v>
+        <v>2.488</v>
       </c>
       <c r="K8" s="2">
-        <v>2.2639999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="L8" s="2">
-        <v>2.8812000000000002</v>
+        <v>2.3831999999999902</v>
       </c>
       <c r="M8" s="2">
-        <v>3.7759999999999998</v>
+        <v>7.1660000000000004</v>
       </c>
       <c r="N8" s="2">
-        <v>1.5</v>
+        <v>5.28</v>
       </c>
       <c r="O8" s="2">
-        <v>2.4834999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+        <v>6.1239999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
@@ -1513,7 +1540,7 @@
         <v>1.044</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -1560,7 +1587,7 @@
         <v>1.2929999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
@@ -1607,7 +1634,7 @@
         <v>1.4471000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
@@ -1654,7 +1681,7 @@
         <v>0.85419999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -1701,7 +1728,7 @@
         <v>1.40119999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -1747,8 +1774,19 @@
       <c r="O14" s="2">
         <v>2.2771999999999899</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="R14" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S14" s="7">
+        <f>Q14-R14</f>
+        <v>-0.37000000000000011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -1794,8 +1832,19 @@
       <c r="O15" s="2">
         <v>1.67309999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="R15" s="7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="S15" s="7">
+        <f t="shared" ref="S15:S17" si="0">Q15-R15</f>
+        <v>-0.48000000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -1841,8 +1890,19 @@
       <c r="O16" s="2">
         <v>2.33489999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="S16" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1888,149 +1948,160 @@
       <c r="O17" s="2">
         <v>1.2512000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="S17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>189.1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>81.537999999999997</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.56600000000000195</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-1.5619999999999901</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-0.26709999999999701</v>
+      </c>
+      <c r="I18" s="2">
         <v>40</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2">
-        <v>68.88</v>
-      </c>
-      <c r="D18" s="2">
-        <v>78.881999999999906</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-0.79599999999999205</v>
-      </c>
-      <c r="G18" s="2">
-        <v>-3.798</v>
-      </c>
-      <c r="H18" s="2">
-        <v>-1.9539</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
       <c r="J18" s="2">
-        <v>2.8519999999999999</v>
+        <v>3.6379999999999999</v>
       </c>
       <c r="K18" s="2">
-        <v>2.016</v>
+        <v>2.8919999999999999</v>
       </c>
       <c r="L18" s="2">
-        <v>2.2649999999999899</v>
+        <v>3.3376000000000001</v>
       </c>
       <c r="M18" s="2">
-        <v>6.65</v>
+        <v>5.0619999999999896</v>
       </c>
       <c r="N18" s="2">
-        <v>2.8119999999999998</v>
+        <v>2.5259999999999998</v>
       </c>
       <c r="O18" s="2">
-        <v>4.2188999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3.6046999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>189.1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>83.274000000000001</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.78000000000000103</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-5.5739999999999901</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-0.768199999999997</v>
+      </c>
+      <c r="I19" s="2">
+        <v>35</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3.6419999999999999</v>
+      </c>
+      <c r="K19" s="2">
+        <v>2.552</v>
+      </c>
+      <c r="L19" s="2">
+        <v>3.2549999999999999</v>
+      </c>
+      <c r="M19" s="2">
+        <v>9.1359999999999992</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1.994</v>
+      </c>
+      <c r="O19" s="2">
+        <v>4.0232000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2">
-        <v>59.88</v>
-      </c>
-      <c r="D19" s="2">
-        <v>81.385999999999996</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="2">
-        <v>-0.32800000000000201</v>
-      </c>
-      <c r="G19" s="2">
-        <v>-1.72999999999998</v>
-      </c>
-      <c r="H19" s="2">
-        <v>-0.73209999999999398</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1.466</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1.6999</v>
-      </c>
-      <c r="M19" s="2">
-        <v>3.55</v>
-      </c>
-      <c r="N19" s="2">
-        <v>1.9139999999999999</v>
-      </c>
-      <c r="O19" s="2">
-        <v>2.4319999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>73.760000000000005</v>
+        <v>189.1</v>
       </c>
       <c r="D20" s="2">
-        <v>82.44</v>
+        <v>81.911999999999907</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="2">
-        <v>1.04</v>
+        <v>0.103999999999999</v>
       </c>
       <c r="G20" s="2">
-        <v>-0.495999999999995</v>
+        <v>-0.98799999999999899</v>
       </c>
       <c r="H20" s="2">
-        <v>0.40739999999999998</v>
+        <v>-0.44289999999999802</v>
       </c>
       <c r="I20" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="J20" s="2">
-        <v>3.536</v>
+        <v>2.8239999999999998</v>
       </c>
       <c r="K20" s="2">
-        <v>3.1139999999999999</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="L20" s="2">
-        <v>3.3403</v>
+        <v>2.5042</v>
       </c>
       <c r="M20" s="2">
-        <v>3.7679999999999998</v>
+        <v>3.798</v>
       </c>
       <c r="N20" s="2">
-        <v>2.226</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="O20" s="2">
-        <v>2.9329000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.9470999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
@@ -2077,7 +2148,7 @@
         <v>0.65579999999999905</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
@@ -2124,7 +2195,7 @@
         <v>1.1064000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>39</v>
       </c>
@@ -2171,7 +2242,7 @@
         <v>2.8554999999999899</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
@@ -2218,7 +2289,7 @@
         <v>0.80369999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
@@ -2265,101 +2336,101 @@
         <v>1.18757894736842</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>68.88</v>
+        <v>115.09</v>
       </c>
       <c r="D26" s="2">
-        <v>80.711999999999904</v>
+        <v>81.188000000000002</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="2">
-        <v>-0.386000000000009</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>-0.88199999999999001</v>
+        <v>-2.7700000000000098</v>
       </c>
       <c r="H26" s="2">
-        <v>-0.58640000000000103</v>
+        <v>-0.515100000000008</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>2.234</v>
+        <v>3.15</v>
       </c>
       <c r="K26" s="2">
-        <v>1.998</v>
+        <v>2.4420000000000002</v>
       </c>
       <c r="L26" s="2">
-        <v>2.1104999999999898</v>
+        <v>2.7316999999999898</v>
       </c>
       <c r="M26" s="2">
-        <v>3.0880000000000001</v>
+        <v>5.92</v>
       </c>
       <c r="N26" s="2">
-        <v>2.452</v>
+        <v>2.57</v>
       </c>
       <c r="O26" s="2">
-        <v>2.6968999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3.2467999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2">
-        <v>59.88</v>
+        <v>115.09</v>
       </c>
       <c r="D27" s="2">
-        <v>81.602000000000004</v>
+        <v>79.132000000000005</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F27" s="2">
-        <v>-6.9999999999993096E-2</v>
+        <v>-1.1339999999999999</v>
       </c>
       <c r="G27" s="2">
-        <v>-1.20599999999998</v>
+        <v>-2.1080000000000001</v>
       </c>
       <c r="H27" s="2">
-        <v>-0.47169999999999401</v>
+        <v>-1.7799</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>2.0539999999999998</v>
+        <v>2.8380000000000001</v>
       </c>
       <c r="K27" s="2">
-        <v>1.694</v>
+        <v>2.5179999999999998</v>
       </c>
       <c r="L27" s="2">
-        <v>1.8119999999999901</v>
+        <v>2.7132999999999998</v>
       </c>
       <c r="M27" s="2">
-        <v>3.1179999999999999</v>
+        <v>4.9079999999999897</v>
       </c>
       <c r="N27" s="2">
-        <v>1.87</v>
+        <v>3.6840000000000002</v>
       </c>
       <c r="O27" s="2">
-        <v>2.2837000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+        <v>4.4931999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2476,19 @@
       <c r="O28" s="2">
         <v>1.3134999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="S28" s="7">
+        <f t="shared" ref="S28:S29" si="1">Q28-R28</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>43</v>
       </c>
@@ -2452,8 +2534,19 @@
       <c r="O29" s="2">
         <v>1.7172999999999901</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="S29" s="7">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>44</v>
       </c>
@@ -2500,7 +2593,7 @@
         <v>2.0527999999999902</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>44</v>
       </c>
@@ -2547,54 +2640,54 @@
         <v>1.1668000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2">
-        <v>59.88</v>
+        <v>115.09</v>
       </c>
       <c r="D32" s="2">
-        <v>76.287999999999997</v>
+        <v>79.947999999999993</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F32" s="2">
-        <v>2.26199999999998</v>
+        <v>-0.73199999999999898</v>
       </c>
       <c r="G32" s="2">
-        <v>-1.88</v>
+        <v>-1.73799999999999</v>
       </c>
       <c r="H32" s="2">
-        <v>1.53009999999999</v>
+        <v>-1.1026</v>
       </c>
       <c r="I32" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J32" s="2">
-        <v>5.3120000000000003</v>
+        <v>3.1539999999999999</v>
       </c>
       <c r="K32" s="2">
-        <v>4.2119999999999997</v>
+        <v>2.8420000000000001</v>
       </c>
       <c r="L32" s="2">
-        <v>4.8277000000000001</v>
+        <v>3.0139999999999998</v>
       </c>
       <c r="M32" s="2">
-        <v>6.9879999999999898</v>
+        <v>4.694</v>
       </c>
       <c r="N32" s="2">
-        <v>2.0619999999999998</v>
+        <v>3.786</v>
       </c>
       <c r="O32" s="2">
-        <v>3.2976000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+        <v>4.1166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2733,19 @@
       <c r="O33" s="2">
         <v>1.7339</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P33" s="7"/>
+      <c r="Q33" s="6">
+        <v>5.45</v>
+      </c>
+      <c r="R33" s="7">
+        <v>3.66</v>
+      </c>
+      <c r="S33" s="7">
+        <f t="shared" ref="S33:S35" si="2">Q33-R33</f>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
         <v>43</v>
       </c>
@@ -2687,8 +2791,19 @@
       <c r="O34" s="2">
         <v>0.90110000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="R34" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="S34" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
@@ -2734,8 +2849,19 @@
       <c r="O35" s="2">
         <v>0.98350000000000004</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="S35" s="7">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
@@ -2782,54 +2908,54 @@
         <v>0.97259999999999902</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="2">
-        <v>73.760000000000005</v>
+        <v>86.57</v>
       </c>
       <c r="D37" s="2">
-        <v>79.001999999999995</v>
+        <v>83.501999999999995</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="2">
-        <v>1.27000000000001</v>
+        <v>0.14199999999999499</v>
       </c>
       <c r="G37" s="2">
-        <v>-4.9519999999999902</v>
+        <v>-6.7619999999999996</v>
       </c>
       <c r="H37" s="2">
-        <v>-0.301399999999998</v>
+        <v>-1.2835000000000001</v>
       </c>
       <c r="I37" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J37" s="2">
-        <v>3.8279999999999998</v>
+        <v>2.456</v>
       </c>
       <c r="K37" s="2">
-        <v>2.3959999999999999</v>
+        <v>1.6439999999999999</v>
       </c>
       <c r="L37" s="2">
-        <v>3.3109000000000002</v>
+        <v>2.1894999999999998</v>
       </c>
       <c r="M37" s="2">
-        <v>8.5299999999999994</v>
+        <v>9.2119999999999997</v>
       </c>
       <c r="N37" s="2">
-        <v>1.4339999999999999</v>
+        <v>1.9259999999999999</v>
       </c>
       <c r="O37" s="2">
-        <v>3.6122999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3.4729999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
@@ -2876,7 +3002,7 @@
         <v>0.72289999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -2923,7 +3049,7 @@
         <v>5.1342999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
@@ -2970,7 +3096,7 @@
         <v>5.2392999999999903</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
@@ -3017,54 +3143,54 @@
         <v>0.95169999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2">
-        <v>59.88</v>
+        <v>86.57</v>
       </c>
       <c r="D42" s="2">
-        <v>80.16</v>
+        <v>82.16</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F42" s="2">
-        <v>0.27400000000000002</v>
+        <v>2.1999999999991301E-2</v>
       </c>
       <c r="G42" s="2">
-        <v>-4.9939999999999998</v>
+        <v>-2.1880000000000002</v>
       </c>
       <c r="H42" s="2">
-        <v>-0.73529999999999995</v>
+        <v>-0.68120000000000103</v>
       </c>
       <c r="I42" s="2">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="J42" s="2">
-        <v>2.12</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="K42" s="2">
-        <v>1.1379999999999999</v>
+        <v>1.73</v>
       </c>
       <c r="L42" s="2">
-        <v>1.4528999999999901</v>
+        <v>2.1948999999999899</v>
       </c>
       <c r="M42" s="2">
-        <v>7.1139999999999999</v>
+        <v>4.694</v>
       </c>
       <c r="N42" s="2">
-        <v>0.98799999999999999</v>
+        <v>2.024</v>
       </c>
       <c r="O42" s="2">
-        <v>2.1881999999999899</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.8761000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -3111,7 +3237,7 @@
         <v>16.600899999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
@@ -3158,54 +3284,54 @@
         <v>1.2221</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C45" s="2">
-        <v>68.88</v>
+        <v>86.57</v>
       </c>
       <c r="D45" s="2">
-        <v>79.819999999999993</v>
+        <v>82.616</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F45" s="2">
-        <v>-0.33399999999998897</v>
+        <v>-1.1360000000000099</v>
       </c>
       <c r="G45" s="2">
-        <v>-1.792</v>
+        <v>-2.68</v>
       </c>
       <c r="H45" s="2">
-        <v>-0.669399999999996</v>
+        <v>-1.8306</v>
       </c>
       <c r="I45" s="2">
         <v>0</v>
       </c>
       <c r="J45" s="2">
-        <v>2.3519999999999999</v>
+        <v>2.7879999999999998</v>
       </c>
       <c r="K45" s="2">
-        <v>1.8180000000000001</v>
+        <v>2.504</v>
       </c>
       <c r="L45" s="2">
-        <v>2.0288999999999899</v>
+        <v>2.6430999999999898</v>
       </c>
       <c r="M45" s="2">
-        <v>4.1440000000000001</v>
+        <v>5.3339999999999996</v>
       </c>
       <c r="N45" s="2">
-        <v>2.222</v>
+        <v>3.698</v>
       </c>
       <c r="O45" s="2">
-        <v>2.6983000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+        <v>4.4736999999999902</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
         <v>39</v>
       </c>
@@ -3252,7 +3378,7 @@
         <v>1.9695</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>43</v>
       </c>
@@ -3298,8 +3424,18 @@
       <c r="O47" s="2">
         <v>0.77669999999999995</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7">
+        <f>SUBTOTAL(9,Q14:Q46)</f>
+        <v>0</v>
+      </c>
+      <c r="R47" s="7">
+        <f>SUBTOTAL(9,R14:R46)</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="7"/>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
         <v>43</v>
       </c>
@@ -3345,8 +3481,18 @@
       <c r="O48" s="2">
         <v>0.73089999999999899</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7">
+        <f>Q47/9</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="7">
+        <f>R47/9</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="7"/>
+    </row>
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>44</v>
       </c>
@@ -3393,7 +3539,7 @@
         <v>1.6082999999999901</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
         <v>43</v>
       </c>
@@ -3439,8 +3585,15 @@
       <c r="O50" s="2">
         <v>2.2766999999999902</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7">
+        <f>Q48-R48</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+    </row>
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>42</v>
       </c>
@@ -3487,7 +3640,7 @@
         <v>0.70240000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
         <v>44</v>
       </c>
@@ -3534,7 +3687,7 @@
         <v>1.80259999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>44</v>
       </c>
@@ -3581,7 +3734,7 @@
         <v>1.8776999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
         <v>43</v>
       </c>
@@ -3627,55 +3780,59 @@
       <c r="O54" s="2">
         <v>0.48780000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+    </row>
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C55" s="2">
-        <v>30.02</v>
+        <v>73.760000000000005</v>
       </c>
       <c r="D55" s="2">
-        <v>79.168000000000006</v>
+        <v>82.634</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F55" s="2">
-        <v>0.49200000000000399</v>
+        <v>0.993999999999999</v>
       </c>
       <c r="G55" s="2">
-        <v>-3.798</v>
+        <v>-0.219999999999998</v>
       </c>
       <c r="H55" s="2">
-        <v>-0.27380000000000199</v>
+        <v>0.3977</v>
       </c>
       <c r="I55" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J55" s="2">
-        <v>2.8119999999999998</v>
+        <v>3.556</v>
       </c>
       <c r="K55" s="2">
-        <v>1.274</v>
+        <v>2.2639999999999998</v>
       </c>
       <c r="L55" s="2">
-        <v>2.0534999999999899</v>
+        <v>2.8812000000000002</v>
       </c>
       <c r="M55" s="2">
-        <v>6.61</v>
+        <v>3.7759999999999998</v>
       </c>
       <c r="N55" s="2">
-        <v>1.0720000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="O55" s="2">
-        <v>2.3273000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.4834999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56" s="4" t="s">
         <v>39</v>
       </c>
@@ -3722,7 +3879,7 @@
         <v>2.1985000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>39</v>
       </c>
@@ -3769,7 +3926,7 @@
         <v>1.7167999999999899</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="4" t="s">
         <v>44</v>
       </c>
@@ -3816,7 +3973,7 @@
         <v>2.3592</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>39</v>
       </c>
@@ -3863,54 +4020,54 @@
         <v>2.6448</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C60" s="2">
-        <v>30.02</v>
+        <v>73.760000000000005</v>
       </c>
       <c r="D60" s="2">
-        <v>80.186000000000007</v>
+        <v>82.44</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F60" s="2">
-        <v>0.43199999999998701</v>
+        <v>1.04</v>
       </c>
       <c r="G60" s="2">
-        <v>-4.1160000000000103</v>
+        <v>-0.495999999999995</v>
       </c>
       <c r="H60" s="2">
-        <v>-0.45020000000001298</v>
+        <v>0.40739999999999998</v>
       </c>
       <c r="I60" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J60" s="2">
-        <v>2.3879999999999999</v>
+        <v>3.536</v>
       </c>
       <c r="K60" s="2">
-        <v>0.85</v>
+        <v>3.1139999999999999</v>
       </c>
       <c r="L60" s="2">
-        <v>1.6377999999999999</v>
+        <v>3.3403</v>
       </c>
       <c r="M60" s="2">
-        <v>6.5039999999999996</v>
+        <v>3.7679999999999998</v>
       </c>
       <c r="N60" s="2">
-        <v>0.77799999999999903</v>
+        <v>2.226</v>
       </c>
       <c r="O60" s="2">
-        <v>2.0880000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.9329000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>39</v>
       </c>
@@ -3957,7 +4114,7 @@
         <v>3.3001999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
         <v>44</v>
       </c>
@@ -4004,7 +4161,7 @@
         <v>1.226</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>43</v>
       </c>
@@ -4050,8 +4207,12 @@
       <c r="O63" s="2">
         <v>1.0005999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+    </row>
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
         <v>43</v>
       </c>
@@ -4097,8 +4258,12 @@
       <c r="O64" s="2">
         <v>3.9451999999999998</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+    </row>
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>44</v>
       </c>
@@ -4145,7 +4310,7 @@
         <v>2.3159999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
         <v>44</v>
       </c>
@@ -4192,7 +4357,7 @@
         <v>1.82499999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>39</v>
       </c>
@@ -4239,7 +4404,7 @@
         <v>2.327</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="4" t="s">
         <v>43</v>
       </c>
@@ -4285,8 +4450,12 @@
       <c r="O68" s="2">
         <v>2.0011999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>39</v>
       </c>
@@ -4333,242 +4502,242 @@
         <v>2.38919999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C70" s="2">
-        <v>189.1</v>
+        <v>73.760000000000005</v>
       </c>
       <c r="D70" s="2">
-        <v>81.537999999999997</v>
+        <v>79.001999999999995</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F70" s="2">
-        <v>0.56600000000000195</v>
+        <v>1.27000000000001</v>
       </c>
       <c r="G70" s="2">
-        <v>-1.5619999999999901</v>
+        <v>-4.9519999999999902</v>
       </c>
       <c r="H70" s="2">
-        <v>-0.26709999999999701</v>
+        <v>-0.301399999999998</v>
       </c>
       <c r="I70" s="2">
+        <v>60</v>
+      </c>
+      <c r="J70" s="2">
+        <v>3.8279999999999998</v>
+      </c>
+      <c r="K70" s="2">
+        <v>2.3959999999999999</v>
+      </c>
+      <c r="L70" s="2">
+        <v>3.3109000000000002</v>
+      </c>
+      <c r="M70" s="2">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="N70" s="2">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="O70" s="2">
+        <v>3.6122999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J70" s="2">
-        <v>3.6379999999999999</v>
-      </c>
-      <c r="K70" s="2">
-        <v>2.8919999999999999</v>
-      </c>
-      <c r="L70" s="2">
-        <v>3.3376000000000001</v>
-      </c>
-      <c r="M70" s="2">
-        <v>5.0619999999999896</v>
-      </c>
-      <c r="N70" s="2">
-        <v>2.5259999999999998</v>
-      </c>
-      <c r="O70" s="2">
-        <v>3.6046999999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A71" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="B71" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C71" s="2">
-        <v>189.1</v>
+        <v>68.88</v>
       </c>
       <c r="D71" s="2">
-        <v>83.274000000000001</v>
+        <v>78.881999999999906</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F71" s="2">
-        <v>0.78000000000000103</v>
+        <v>-0.79599999999999205</v>
       </c>
       <c r="G71" s="2">
-        <v>-5.5739999999999901</v>
+        <v>-3.798</v>
       </c>
       <c r="H71" s="2">
-        <v>-0.768199999999997</v>
+        <v>-1.9539</v>
       </c>
       <c r="I71" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J71" s="2">
-        <v>3.6419999999999999</v>
+        <v>2.8519999999999999</v>
       </c>
       <c r="K71" s="2">
-        <v>2.552</v>
+        <v>2.016</v>
       </c>
       <c r="L71" s="2">
-        <v>3.2549999999999999</v>
+        <v>2.2649999999999899</v>
       </c>
       <c r="M71" s="2">
-        <v>9.1359999999999992</v>
+        <v>6.65</v>
       </c>
       <c r="N71" s="2">
-        <v>1.994</v>
+        <v>2.8119999999999998</v>
       </c>
       <c r="O71" s="2">
-        <v>4.0232000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+        <v>4.2188999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C72" s="2">
-        <v>38.75</v>
+        <v>68.88</v>
       </c>
       <c r="D72" s="2">
-        <v>81.489999999999995</v>
+        <v>80.711999999999904</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F72" s="2">
-        <v>0.33800000000000802</v>
+        <v>-0.386000000000009</v>
       </c>
       <c r="G72" s="2">
-        <v>-5.75199999999999</v>
+        <v>-0.88199999999999001</v>
       </c>
       <c r="H72" s="2">
-        <v>-0.94959999999999201</v>
+        <v>-0.58640000000000103</v>
       </c>
       <c r="I72" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J72" s="2">
-        <v>2.6619999999999999</v>
+        <v>2.234</v>
       </c>
       <c r="K72" s="2">
-        <v>1.1359999999999999</v>
+        <v>1.998</v>
       </c>
       <c r="L72" s="2">
-        <v>2.0600999999999998</v>
+        <v>2.1104999999999898</v>
       </c>
       <c r="M72" s="2">
-        <v>8.4139999999999997</v>
+        <v>3.0880000000000001</v>
       </c>
       <c r="N72" s="2">
-        <v>0.94</v>
+        <v>2.452</v>
       </c>
       <c r="O72" s="2">
-        <v>3.0097</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.6968999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C73" s="2">
-        <v>10.62</v>
+        <v>68.88</v>
       </c>
       <c r="D73" s="2">
-        <v>77.668000000000006</v>
+        <v>79.819999999999993</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F73" s="2">
-        <v>0.20000000000000201</v>
+        <v>-0.33399999999998897</v>
       </c>
       <c r="G73" s="2">
-        <v>-3.8959999999999799</v>
+        <v>-1.792</v>
       </c>
       <c r="H73" s="2">
-        <v>-0.46709999999999002</v>
+        <v>-0.669399999999996</v>
       </c>
       <c r="I73" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J73" s="2">
-        <v>2.6440000000000001</v>
+        <v>2.3519999999999999</v>
       </c>
       <c r="K73" s="2">
-        <v>1.3740000000000001</v>
+        <v>1.8180000000000001</v>
       </c>
       <c r="L73" s="2">
-        <v>2.0714999999999901</v>
+        <v>2.0288999999999899</v>
       </c>
       <c r="M73" s="2">
-        <v>6.54</v>
+        <v>4.1440000000000001</v>
       </c>
       <c r="N73" s="2">
-        <v>1.39</v>
+        <v>2.222</v>
       </c>
       <c r="O73" s="2">
-        <v>2.53859999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.6983000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C74" s="2">
-        <v>44.57</v>
+        <v>59.88</v>
       </c>
       <c r="D74" s="2">
-        <v>77.95</v>
+        <v>77.596000000000004</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F74" s="2">
-        <v>0.19199999999999301</v>
+        <v>1.6659999999999899</v>
       </c>
       <c r="G74" s="2">
-        <v>-2.52599999999999</v>
+        <v>0.39399999999999102</v>
       </c>
       <c r="H74" s="2">
-        <v>-0.31529999999999803</v>
+        <v>1.1145999999999801</v>
       </c>
       <c r="I74" s="2">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="J74" s="2">
-        <v>2.8660000000000001</v>
+        <v>4.9859999999999998</v>
       </c>
       <c r="K74" s="2">
-        <v>2.06</v>
+        <v>4.0979999999999999</v>
       </c>
       <c r="L74" s="2">
-        <v>2.3542999999999998</v>
+        <v>4.4037999999999897</v>
       </c>
       <c r="M74" s="2">
-        <v>5.3920000000000003</v>
+        <v>4.26</v>
       </c>
       <c r="N74" s="2">
-        <v>2.1160000000000001</v>
+        <v>2.8140000000000001</v>
       </c>
       <c r="O74" s="2">
-        <v>2.6696</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3.2891999999999899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>44</v>
       </c>
@@ -4615,7 +4784,7 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A76" s="4" t="s">
         <v>39</v>
       </c>
@@ -4662,7 +4831,7 @@
         <v>2.83299999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>42</v>
       </c>
@@ -4709,145 +4878,145 @@
         <v>1.4504999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C78" s="2">
-        <v>25.55</v>
+        <v>59.88</v>
       </c>
       <c r="D78" s="2">
-        <v>81.218000000000004</v>
+        <v>77.649999999999906</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F78" s="2">
-        <v>0.24600000000000899</v>
+        <v>1.27599999999999</v>
       </c>
       <c r="G78" s="2">
-        <v>-5.5639999999999903</v>
+        <v>0.18799999999998801</v>
       </c>
       <c r="H78" s="2">
-        <v>-0.74109999999999199</v>
+        <v>0.94169999999998899</v>
       </c>
       <c r="I78" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J78" s="2">
-        <v>2.6179999999999999</v>
+        <v>4.8439999999999896</v>
       </c>
       <c r="K78" s="2">
-        <v>1.27</v>
+        <v>4.4560000000000004</v>
       </c>
       <c r="L78" s="2">
-        <v>1.8057999999999901</v>
+        <v>4.5957999999999997</v>
       </c>
       <c r="M78" s="2">
-        <v>8.1820000000000004</v>
+        <v>4.306</v>
       </c>
       <c r="N78" s="2">
-        <v>1.1599999999999999</v>
+        <v>3.28</v>
       </c>
       <c r="O78" s="2">
-        <v>2.5468999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3.6540999999999899</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C79" s="2">
-        <v>44.69</v>
+        <v>59.88</v>
       </c>
       <c r="D79" s="2">
-        <v>77.52</v>
+        <v>81.385999999999996</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F79" s="2">
-        <v>0.35999999999999899</v>
+        <v>-0.32800000000000201</v>
       </c>
       <c r="G79" s="2">
-        <v>-4.1399999999999997</v>
+        <v>-1.72999999999998</v>
       </c>
       <c r="H79" s="2">
-        <v>-0.48619999999999602</v>
+        <v>-0.73209999999999398</v>
       </c>
       <c r="I79" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J79" s="2">
-        <v>2.766</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="K79" s="2">
-        <v>4.2000000000000003E-2</v>
+        <v>1.466</v>
       </c>
       <c r="L79" s="2">
-        <v>2.2133999999999898</v>
+        <v>1.6999</v>
       </c>
       <c r="M79" s="2">
-        <v>6.9059999999999997</v>
+        <v>3.55</v>
       </c>
       <c r="N79" s="2">
-        <v>5.5999999999999897E-2</v>
+        <v>1.9139999999999999</v>
       </c>
       <c r="O79" s="2">
-        <v>2.69959999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.4319999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C80" s="2">
-        <v>15.35</v>
+        <v>59.88</v>
       </c>
       <c r="D80" s="2">
-        <v>76.378</v>
+        <v>81.602000000000004</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F80" s="2">
-        <v>0.25199999999999501</v>
+        <v>-6.9999999999993096E-2</v>
       </c>
       <c r="G80" s="2">
-        <v>-2.94599999999999</v>
+        <v>-1.20599999999998</v>
       </c>
       <c r="H80" s="2">
-        <v>-0.348300000000003</v>
+        <v>-0.47169999999999401</v>
       </c>
       <c r="I80" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J80" s="2">
-        <v>3.2779999999999898</v>
+        <v>2.0539999999999998</v>
       </c>
       <c r="K80" s="2">
-        <v>1.804</v>
+        <v>1.694</v>
       </c>
       <c r="L80" s="2">
-        <v>2.6635</v>
+        <v>1.8119999999999901</v>
       </c>
       <c r="M80" s="2">
-        <v>5.7140000000000004</v>
+        <v>3.1179999999999999</v>
       </c>
       <c r="N80" s="2">
-        <v>1.552</v>
+        <v>1.87</v>
       </c>
       <c r="O80" s="2">
-        <v>3.0118</v>
+        <v>2.2837000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.45">
@@ -4944,7 +5113,7 @@
         <v>2.4014000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>42</v>
       </c>
@@ -5038,54 +5207,54 @@
         <v>1.6433</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C85" s="2">
-        <v>38.75</v>
+        <v>59.88</v>
       </c>
       <c r="D85" s="2">
-        <v>81.256</v>
+        <v>76.287999999999997</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F85" s="2">
-        <v>0.18000000000000599</v>
+        <v>2.26199999999998</v>
       </c>
       <c r="G85" s="2">
-        <v>-2.3239999999999799</v>
+        <v>-1.88</v>
       </c>
       <c r="H85" s="2">
-        <v>-0.50029999999999297</v>
+        <v>1.53009999999999</v>
       </c>
       <c r="I85" s="2">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="J85" s="2">
-        <v>2.61</v>
+        <v>5.3120000000000003</v>
       </c>
       <c r="K85" s="2">
-        <v>1.228</v>
+        <v>4.2119999999999997</v>
       </c>
       <c r="L85" s="2">
-        <v>1.9108000000000001</v>
+        <v>4.8277000000000001</v>
       </c>
       <c r="M85" s="2">
-        <v>4.9340000000000002</v>
+        <v>6.9879999999999898</v>
       </c>
       <c r="N85" s="2">
-        <v>1.1120000000000001</v>
+        <v>2.0619999999999998</v>
       </c>
       <c r="O85" s="2">
-        <v>2.4110999999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3.2976000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="4" t="s">
         <v>42</v>
       </c>
@@ -5132,54 +5301,54 @@
         <v>1.1987999999999901</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C87" s="2">
-        <v>38.75</v>
+        <v>59.88</v>
       </c>
       <c r="D87" s="2">
-        <v>81.486000000000004</v>
+        <v>80.16</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F87" s="2">
-        <v>0.100000000000008</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="G87" s="2">
-        <v>-1.6020000000000001</v>
+        <v>-4.9939999999999998</v>
       </c>
       <c r="H87" s="2">
-        <v>-0.52599999999999403</v>
+        <v>-0.73529999999999995</v>
       </c>
       <c r="I87" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J87" s="2">
-        <v>2.722</v>
+        <v>2.12</v>
       </c>
       <c r="K87" s="2">
-        <v>2.012</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="L87" s="2">
-        <v>2.3701999999999899</v>
+        <v>1.4528999999999901</v>
       </c>
       <c r="M87" s="2">
-        <v>4.3239999999999998</v>
+        <v>7.1139999999999999</v>
       </c>
       <c r="N87" s="2">
-        <v>1.982</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="O87" s="2">
-        <v>2.8961999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.1881999999999899</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" s="4" t="s">
         <v>42</v>
       </c>
@@ -5226,145 +5395,145 @@
         <v>48.325099999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="2">
+        <v>44.69</v>
+      </c>
+      <c r="D89" s="2">
+        <v>77.52</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.35999999999999899</v>
+      </c>
+      <c r="G89" s="2">
+        <v>-4.1399999999999997</v>
+      </c>
+      <c r="H89" s="2">
+        <v>-0.48619999999999602</v>
+      </c>
+      <c r="I89" s="2">
+        <v>30</v>
+      </c>
+      <c r="J89" s="2">
+        <v>2.766</v>
+      </c>
+      <c r="K89" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L89" s="2">
+        <v>2.2133999999999898</v>
+      </c>
+      <c r="M89" s="2">
+        <v>6.9059999999999997</v>
+      </c>
+      <c r="N89" s="2">
+        <v>5.5999999999999897E-2</v>
+      </c>
+      <c r="O89" s="2">
+        <v>2.69959999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" s="2">
-        <v>189.1</v>
-      </c>
-      <c r="D89" s="2">
-        <v>81.911999999999907</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F89" s="2">
-        <v>0.103999999999999</v>
-      </c>
-      <c r="G89" s="2">
-        <v>-0.98799999999999899</v>
-      </c>
-      <c r="H89" s="2">
-        <v>-0.44289999999999802</v>
-      </c>
-      <c r="I89" s="2">
-        <v>15</v>
-      </c>
-      <c r="J89" s="2">
-        <v>2.8239999999999998</v>
-      </c>
-      <c r="K89" s="2">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="L89" s="2">
-        <v>2.5042</v>
-      </c>
-      <c r="M89" s="2">
-        <v>3.798</v>
-      </c>
-      <c r="N89" s="2">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="O89" s="2">
-        <v>2.9470999999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A90" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="B90" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C90" s="2">
-        <v>86.57</v>
+        <v>44.69</v>
       </c>
       <c r="D90" s="2">
-        <v>83.501999999999995</v>
+        <v>78.524000000000001</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F90" s="2">
-        <v>0.14199999999999499</v>
+        <v>5.4000000000001998E-2</v>
       </c>
       <c r="G90" s="2">
-        <v>-6.7619999999999996</v>
+        <v>-1.3819999999999899</v>
       </c>
       <c r="H90" s="2">
-        <v>-1.2835000000000001</v>
+        <v>-0.48449999999999399</v>
       </c>
       <c r="I90" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J90" s="2">
-        <v>2.456</v>
+        <v>2.488</v>
       </c>
       <c r="K90" s="2">
-        <v>1.6439999999999999</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="L90" s="2">
-        <v>2.1894999999999998</v>
+        <v>2.0177999999999998</v>
       </c>
       <c r="M90" s="2">
-        <v>9.2119999999999997</v>
+        <v>3.87</v>
       </c>
       <c r="N90" s="2">
-        <v>1.9259999999999999</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="O90" s="2">
-        <v>3.4729999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.5022999999999902</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C91" s="2">
-        <v>11</v>
+        <v>44.69</v>
       </c>
       <c r="D91" s="2">
-        <v>77.132000000000005</v>
+        <v>77.134</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F91" s="2">
-        <v>9.1999999999998694E-2</v>
+        <v>-1.3959999999999999</v>
       </c>
       <c r="G91" s="2">
-        <v>-3.7379999999999902</v>
+        <v>-3.99999999999998</v>
       </c>
       <c r="H91" s="2">
-        <v>-0.57090000000000096</v>
+        <v>-2.5835999999999899</v>
       </c>
       <c r="I91" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J91" s="2">
-        <v>2.258</v>
+        <v>3.0680000000000001</v>
       </c>
       <c r="K91" s="2">
-        <v>1.228</v>
+        <v>2.6640000000000001</v>
       </c>
       <c r="L91" s="2">
-        <v>1.7261</v>
+        <v>2.8565999999999998</v>
       </c>
       <c r="M91" s="2">
-        <v>5.9960000000000004</v>
+        <v>6.9020000000000001</v>
       </c>
       <c r="N91" s="2">
-        <v>1.4339999999999999</v>
+        <v>4.242</v>
       </c>
       <c r="O91" s="2">
-        <v>2.2968000000000002</v>
+        <v>5.4401999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.45">
@@ -5461,195 +5630,195 @@
         <v>3.2473000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C94" s="2">
-        <v>21.8</v>
+        <v>44.57</v>
       </c>
       <c r="D94" s="2">
-        <v>72.56</v>
+        <v>77.95</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F94" s="2">
-        <v>3.7999999999996703E-2</v>
+        <v>0.19199999999999301</v>
       </c>
       <c r="G94" s="2">
-        <v>-2.492</v>
+        <v>-2.52599999999999</v>
       </c>
       <c r="H94" s="2">
-        <v>-0.86349999999999705</v>
+        <v>-0.31529999999999803</v>
       </c>
       <c r="I94" s="2">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J94" s="2">
-        <v>2.9780000000000002</v>
+        <v>2.8660000000000001</v>
       </c>
       <c r="K94" s="2">
-        <v>2.3039999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="L94" s="2">
-        <v>2.6267999999999998</v>
+        <v>2.3542999999999998</v>
       </c>
       <c r="M94" s="2">
-        <v>5.47</v>
+        <v>5.3920000000000003</v>
       </c>
       <c r="N94" s="2">
-        <v>2.2839999999999998</v>
+        <v>2.1160000000000001</v>
       </c>
       <c r="O94" s="2">
-        <v>3.4903</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.6696</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C95" s="2">
-        <v>86.57</v>
+        <v>44.57</v>
       </c>
       <c r="D95" s="2">
-        <v>82.16</v>
+        <v>76.534000000000006</v>
       </c>
       <c r="E95" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="2">
+        <v>-0.90000000000000502</v>
+      </c>
+      <c r="G95" s="2">
+        <v>-3.706</v>
+      </c>
+      <c r="H95" s="2">
+        <v>-2.1432999999999902</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2">
+        <v>2.76</v>
+      </c>
+      <c r="K95" s="2">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="L95" s="2">
+        <v>2.5369999999999999</v>
+      </c>
+      <c r="M95" s="2">
+        <v>6.4539999999999997</v>
+      </c>
+      <c r="N95" s="2">
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="O95" s="2">
+        <v>4.6802999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="2">
+        <v>44.57</v>
+      </c>
+      <c r="D96" s="2">
+        <v>78.593999999999994</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="2">
+        <v>-0.43799999999998801</v>
+      </c>
+      <c r="G96" s="2">
+        <v>-1.212</v>
+      </c>
+      <c r="H96" s="2">
+        <v>-0.71899999999999697</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <v>2.8559999999999999</v>
+      </c>
+      <c r="K96" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="L96" s="2">
+        <v>2.7587999999999999</v>
+      </c>
+      <c r="M96" s="2">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="N96" s="2">
+        <v>3.1579999999999901</v>
+      </c>
+      <c r="O96" s="2">
+        <v>3.4777999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="2">
+        <v>38.75</v>
+      </c>
+      <c r="D97" s="2">
+        <v>81.489999999999995</v>
+      </c>
+      <c r="E97" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F95" s="2">
-        <v>2.1999999999991301E-2</v>
-      </c>
-      <c r="G95" s="2">
-        <v>-2.1880000000000002</v>
-      </c>
-      <c r="H95" s="2">
-        <v>-0.68120000000000103</v>
-      </c>
-      <c r="I95" s="2">
-        <v>5</v>
-      </c>
-      <c r="J95" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="K95" s="2">
-        <v>1.73</v>
-      </c>
-      <c r="L95" s="2">
-        <v>2.1948999999999899</v>
-      </c>
-      <c r="M95" s="2">
-        <v>4.694</v>
-      </c>
-      <c r="N95" s="2">
-        <v>2.024</v>
-      </c>
-      <c r="O95" s="2">
-        <v>2.8761000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A96" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B96" s="5" t="s">
+      <c r="F97" s="2">
+        <v>0.33800000000000802</v>
+      </c>
+      <c r="G97" s="2">
+        <v>-5.75199999999999</v>
+      </c>
+      <c r="H97" s="2">
+        <v>-0.94959999999999201</v>
+      </c>
+      <c r="I97" s="2">
         <v>35</v>
       </c>
-      <c r="C96" s="2">
-        <v>44.69</v>
-      </c>
-      <c r="D96" s="2">
-        <v>78.524000000000001</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F96" s="2">
-        <v>5.4000000000001998E-2</v>
-      </c>
-      <c r="G96" s="2">
-        <v>-1.3819999999999899</v>
-      </c>
-      <c r="H96" s="2">
-        <v>-0.48449999999999399</v>
-      </c>
-      <c r="I96" s="2">
-        <v>5</v>
-      </c>
-      <c r="J96" s="2">
-        <v>2.488</v>
-      </c>
-      <c r="K96" s="2">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="L96" s="2">
-        <v>2.0177999999999998</v>
-      </c>
-      <c r="M96" s="2">
-        <v>3.87</v>
-      </c>
-      <c r="N96" s="2">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="O96" s="2">
-        <v>2.5022999999999902</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A97" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C97" s="2">
-        <v>30.02</v>
-      </c>
-      <c r="D97" s="2">
-        <v>77.914000000000001</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F97" s="2">
-        <v>4.9999999999997102E-2</v>
-      </c>
-      <c r="G97" s="2">
-        <v>-1.992</v>
-      </c>
-      <c r="H97" s="2">
-        <v>-0.66950000000000098</v>
-      </c>
-      <c r="I97" s="2">
-        <v>5</v>
-      </c>
       <c r="J97" s="2">
-        <v>2.5939999999999999</v>
+        <v>2.6619999999999999</v>
       </c>
       <c r="K97" s="2">
-        <v>1.6020000000000001</v>
+        <v>1.1359999999999999</v>
       </c>
       <c r="L97" s="2">
-        <v>2.1396999999999999</v>
+        <v>2.0600999999999998</v>
       </c>
       <c r="M97" s="2">
-        <v>4.55</v>
+        <v>8.4139999999999997</v>
       </c>
       <c r="N97" s="2">
-        <v>1.69</v>
+        <v>0.94</v>
       </c>
       <c r="O97" s="2">
-        <v>2.8091999999999899</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3.0097</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" s="4" t="s">
         <v>42</v>
       </c>
@@ -5696,101 +5865,101 @@
         <v>3.5703</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C99" s="2">
-        <v>194.03</v>
+        <v>38.75</v>
       </c>
       <c r="D99" s="2">
-        <v>82.789999999999907</v>
+        <v>81.256</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F99" s="2">
-        <v>-0.47400000000000297</v>
+        <v>0.18000000000000599</v>
       </c>
       <c r="G99" s="2">
-        <v>-5.4640000000000102</v>
+        <v>-2.3239999999999799</v>
       </c>
       <c r="H99" s="2">
-        <v>-1.5842000000000001</v>
+        <v>-0.50029999999999297</v>
       </c>
       <c r="I99" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J99" s="2">
-        <v>2.6440000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="K99" s="2">
-        <v>1.79199999999999</v>
+        <v>1.228</v>
       </c>
       <c r="L99" s="2">
-        <v>2.1360000000000001</v>
+        <v>1.9108000000000001</v>
       </c>
       <c r="M99" s="2">
-        <v>8.1080000000000005</v>
+        <v>4.9340000000000002</v>
       </c>
       <c r="N99" s="2">
-        <v>2.44599999999999</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="O99" s="2">
-        <v>3.7202000000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.4110999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C100" s="2">
-        <v>115.09</v>
+        <v>38.75</v>
       </c>
       <c r="D100" s="2">
-        <v>81.188000000000002</v>
+        <v>81.486000000000004</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F100" s="2">
-        <v>0</v>
+        <v>0.100000000000008</v>
       </c>
       <c r="G100" s="2">
-        <v>-2.7700000000000098</v>
+        <v>-1.6020000000000001</v>
       </c>
       <c r="H100" s="2">
-        <v>-0.515100000000008</v>
+        <v>-0.52599999999999403</v>
       </c>
       <c r="I100" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J100" s="2">
-        <v>3.15</v>
+        <v>2.722</v>
       </c>
       <c r="K100" s="2">
-        <v>2.4420000000000002</v>
+        <v>2.012</v>
       </c>
       <c r="L100" s="2">
-        <v>2.7316999999999898</v>
+        <v>2.3701999999999899</v>
       </c>
       <c r="M100" s="2">
-        <v>5.92</v>
+        <v>4.3239999999999998</v>
       </c>
       <c r="N100" s="2">
-        <v>2.57</v>
+        <v>1.982</v>
       </c>
       <c r="O100" s="2">
-        <v>3.2467999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.8961999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
         <v>44</v>
       </c>
@@ -5837,51 +6006,51 @@
         <v>2.3144</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C102" s="2">
-        <v>25.55</v>
+        <v>30.02</v>
       </c>
       <c r="D102" s="2">
-        <v>78.02</v>
+        <v>79.168000000000006</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F102" s="2">
-        <v>-1.50999999999999</v>
+        <v>0.49200000000000399</v>
       </c>
       <c r="G102" s="2">
-        <v>-3.3059999999999898</v>
+        <v>-3.798</v>
       </c>
       <c r="H102" s="2">
-        <v>-1.9307999999999901</v>
+        <v>-0.27380000000000199</v>
       </c>
       <c r="I102" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J102" s="2">
-        <v>2.5</v>
+        <v>2.8119999999999998</v>
       </c>
       <c r="K102" s="2">
-        <v>2.0819999999999999</v>
+        <v>1.274</v>
       </c>
       <c r="L102" s="2">
-        <v>2.23829999999999</v>
+        <v>2.0534999999999899</v>
       </c>
       <c r="M102" s="2">
-        <v>5.806</v>
+        <v>6.61</v>
       </c>
       <c r="N102" s="2">
-        <v>3.5920000000000001</v>
+        <v>1.0720000000000001</v>
       </c>
       <c r="O102" s="2">
-        <v>4.1690999999999896</v>
+        <v>2.3273000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.45">
@@ -6025,192 +6194,192 @@
         <v>4.3042999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" s="4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C106" s="2">
-        <v>10.62</v>
+        <v>30.02</v>
       </c>
       <c r="D106" s="2">
-        <v>75.616</v>
+        <v>80.186000000000007</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F106" s="2">
-        <v>-0.623999999999995</v>
+        <v>0.43199999999998701</v>
       </c>
       <c r="G106" s="2">
-        <v>-5.89</v>
+        <v>-4.1160000000000103</v>
       </c>
       <c r="H106" s="2">
-        <v>-2.6906999999999899</v>
+        <v>-0.45020000000001298</v>
       </c>
       <c r="I106" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J106" s="2">
-        <v>2.8559999999999999</v>
+        <v>2.3879999999999999</v>
       </c>
       <c r="K106" s="2">
-        <v>1.6539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="L106" s="2">
-        <v>2.3944000000000001</v>
+        <v>1.6377999999999999</v>
       </c>
       <c r="M106" s="2">
-        <v>8.6760000000000002</v>
+        <v>6.5039999999999996</v>
       </c>
       <c r="N106" s="2">
-        <v>2.3079999999999998</v>
+        <v>0.77799999999999903</v>
       </c>
       <c r="O106" s="2">
-        <v>5.0850999999999997</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.0880000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C107" s="2">
-        <v>11</v>
+        <v>30.02</v>
       </c>
       <c r="D107" s="2">
-        <v>76.691999999999993</v>
+        <v>77.914000000000001</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F107" s="2">
-        <v>-0.70000000000000195</v>
+        <v>4.9999999999997102E-2</v>
       </c>
       <c r="G107" s="2">
-        <v>-5.516</v>
+        <v>-1.992</v>
       </c>
       <c r="H107" s="2">
-        <v>-2.6941000000000002</v>
+        <v>-0.66950000000000098</v>
       </c>
       <c r="I107" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J107" s="2">
-        <v>2.61</v>
+        <v>2.5939999999999999</v>
       </c>
       <c r="K107" s="2">
-        <v>1.5820000000000001</v>
+        <v>1.6020000000000001</v>
       </c>
       <c r="L107" s="2">
-        <v>2.1880000000000002</v>
+        <v>2.1396999999999999</v>
       </c>
       <c r="M107" s="2">
-        <v>8.0259999999999998</v>
+        <v>4.55</v>
       </c>
       <c r="N107" s="2">
-        <v>2.282</v>
+        <v>1.69</v>
       </c>
       <c r="O107" s="2">
-        <v>4.8821000000000003</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.8091999999999899</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C108" s="2">
-        <v>194.03</v>
+        <v>30.02</v>
       </c>
       <c r="D108" s="2">
-        <v>80.042000000000002</v>
+        <v>78.956000000000003</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F108" s="2">
-        <v>-2.0859999999999901</v>
+        <v>-0.224000000000003</v>
       </c>
       <c r="G108" s="2">
-        <v>-84.01</v>
+        <v>-80.322000000000003</v>
       </c>
       <c r="H108" s="2">
-        <v>-6.9886999999999997</v>
+        <v>-8.8952000000000098</v>
       </c>
       <c r="I108" s="2">
         <v>0</v>
       </c>
       <c r="J108" s="2">
-        <v>2.4420000000000002</v>
+        <v>2.1859999999999999</v>
       </c>
       <c r="K108" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="L108" s="2">
-        <v>1.9107999999999901</v>
+        <v>1.53419999999999</v>
       </c>
       <c r="M108" s="2">
-        <v>84.016000000000005</v>
+        <v>80.328000000000003</v>
       </c>
       <c r="N108" s="2">
-        <v>3.948</v>
+        <v>1.504</v>
       </c>
       <c r="O108" s="2">
-        <v>8.8994999999999997</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+        <v>10.4293999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C109" s="2">
-        <v>115.09</v>
+        <v>30.02</v>
       </c>
       <c r="D109" s="2">
-        <v>79.132000000000005</v>
+        <v>79.093999999999994</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F109" s="2">
-        <v>-1.1339999999999999</v>
+        <v>-5.2000000000006701E-2</v>
       </c>
       <c r="G109" s="2">
-        <v>-2.1080000000000001</v>
+        <v>-1.31</v>
       </c>
       <c r="H109" s="2">
-        <v>-1.7799</v>
+        <v>-0.43160000000000098</v>
       </c>
       <c r="I109" s="2">
         <v>0</v>
       </c>
       <c r="J109" s="2">
-        <v>2.8380000000000001</v>
+        <v>2.77</v>
       </c>
       <c r="K109" s="2">
-        <v>2.5179999999999998</v>
+        <v>2.16</v>
       </c>
       <c r="L109" s="2">
-        <v>2.7132999999999998</v>
+        <v>2.4542999999999999</v>
       </c>
       <c r="M109" s="2">
-        <v>4.9079999999999897</v>
+        <v>4.056</v>
       </c>
       <c r="N109" s="2">
-        <v>3.6840000000000002</v>
+        <v>2.3079999999999998</v>
       </c>
       <c r="O109" s="2">
-        <v>4.4931999999999999</v>
+        <v>2.8858999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.45">
@@ -6260,192 +6429,192 @@
         <v>1.6616</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C111" s="2">
-        <v>44.57</v>
+        <v>30.02</v>
       </c>
       <c r="D111" s="2">
-        <v>76.534000000000006</v>
+        <v>80.335999999999999</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F111" s="2">
-        <v>-0.90000000000000502</v>
+        <v>-8.6000000000012705E-2</v>
       </c>
       <c r="G111" s="2">
-        <v>-3.706</v>
+        <v>-1.1759999999999999</v>
       </c>
       <c r="H111" s="2">
-        <v>-2.1432999999999902</v>
+        <v>-0.48560000000001002</v>
       </c>
       <c r="I111" s="2">
         <v>0</v>
       </c>
       <c r="J111" s="2">
-        <v>2.76</v>
+        <v>2.294</v>
       </c>
       <c r="K111" s="2">
-        <v>2.0979999999999999</v>
+        <v>1.8180000000000001</v>
       </c>
       <c r="L111" s="2">
-        <v>2.5369999999999999</v>
+        <v>2.0533000000000001</v>
       </c>
       <c r="M111" s="2">
-        <v>6.4539999999999997</v>
+        <v>3.47</v>
       </c>
       <c r="N111" s="2">
-        <v>3.0419999999999998</v>
+        <v>1.99</v>
       </c>
       <c r="O111" s="2">
-        <v>4.6802999999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.5388999999999902</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" s="4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C112" s="2">
         <v>25.55</v>
       </c>
       <c r="D112" s="2">
-        <v>78.161999999999907</v>
+        <v>81.218000000000004</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F112" s="2">
-        <v>-2.028</v>
+        <v>0.24600000000000899</v>
       </c>
       <c r="G112" s="2">
-        <v>-17.213999999999999</v>
+        <v>-5.5639999999999903</v>
       </c>
       <c r="H112" s="2">
-        <v>-4.6348000000000003</v>
+        <v>-0.74109999999999199</v>
       </c>
       <c r="I112" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J112" s="2">
-        <v>2.782</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="K112" s="2">
-        <v>2.2360000000000002</v>
+        <v>1.27</v>
       </c>
       <c r="L112" s="2">
-        <v>2.4203999999999999</v>
+        <v>1.8057999999999901</v>
       </c>
       <c r="M112" s="2">
-        <v>19.675999999999998</v>
+        <v>8.1820000000000004</v>
       </c>
       <c r="N112" s="2">
-        <v>4.2919999999999998</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="O112" s="2">
-        <v>7.0552000000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.5468999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C113" s="2">
         <v>25.55</v>
       </c>
       <c r="D113" s="2">
-        <v>81.88</v>
+        <v>78.02</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F113" s="2">
-        <v>-0.45999999999999303</v>
+        <v>-1.50999999999999</v>
       </c>
       <c r="G113" s="2">
-        <v>-10.031999999999901</v>
+        <v>-3.3059999999999898</v>
       </c>
       <c r="H113" s="2">
-        <v>-2.9141999999999801</v>
+        <v>-1.9307999999999901</v>
       </c>
       <c r="I113" s="2">
         <v>0</v>
       </c>
       <c r="J113" s="2">
-        <v>2.8140000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="K113" s="2">
-        <v>1.65</v>
+        <v>2.0819999999999999</v>
       </c>
       <c r="L113" s="2">
-        <v>2.3876999999999899</v>
+        <v>2.23829999999999</v>
       </c>
       <c r="M113" s="2">
-        <v>12.821999999999999</v>
+        <v>5.806</v>
       </c>
       <c r="N113" s="2">
-        <v>2.11</v>
+        <v>3.5920000000000001</v>
       </c>
       <c r="O113" s="2">
-        <v>5.3018999999999998</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+        <v>4.1690999999999896</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C114" s="2">
-        <v>21.8</v>
+        <v>25.55</v>
       </c>
       <c r="D114" s="2">
-        <v>70.677999999999997</v>
+        <v>78.161999999999907</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F114" s="2">
-        <v>-1.2</v>
+        <v>-2.028</v>
       </c>
       <c r="G114" s="2">
-        <v>-5.6359999999999904</v>
+        <v>-17.213999999999999</v>
       </c>
       <c r="H114" s="2">
-        <v>-2.9977999999999998</v>
+        <v>-4.6348000000000003</v>
       </c>
       <c r="I114" s="2">
         <v>0</v>
       </c>
       <c r="J114" s="2">
-        <v>3.5739999999999998</v>
+        <v>2.782</v>
       </c>
       <c r="K114" s="2">
-        <v>2.4180000000000001</v>
+        <v>2.2360000000000002</v>
       </c>
       <c r="L114" s="2">
-        <v>3.0434999999999999</v>
+        <v>2.4203999999999999</v>
       </c>
       <c r="M114" s="2">
-        <v>9.19</v>
+        <v>19.675999999999998</v>
       </c>
       <c r="N114" s="2">
-        <v>3.6179999999999999</v>
+        <v>4.2919999999999998</v>
       </c>
       <c r="O114" s="2">
-        <v>6.0412999999999997</v>
+        <v>7.0552000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.45">
@@ -6495,336 +6664,336 @@
         <v>2.5854999999999899</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C116" s="2">
-        <v>30.02</v>
+        <v>25.55</v>
       </c>
       <c r="D116" s="2">
-        <v>78.956000000000003</v>
+        <v>81.88</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F116" s="2">
-        <v>-0.224000000000003</v>
+        <v>-0.45999999999999303</v>
       </c>
       <c r="G116" s="2">
-        <v>-80.322000000000003</v>
+        <v>-10.031999999999901</v>
       </c>
       <c r="H116" s="2">
-        <v>-8.8952000000000098</v>
+        <v>-2.9141999999999801</v>
       </c>
       <c r="I116" s="2">
         <v>0</v>
       </c>
       <c r="J116" s="2">
-        <v>2.1859999999999999</v>
+        <v>2.8140000000000001</v>
       </c>
       <c r="K116" s="2">
-        <v>6.0000000000000001E-3</v>
+        <v>1.65</v>
       </c>
       <c r="L116" s="2">
-        <v>1.53419999999999</v>
+        <v>2.3876999999999899</v>
       </c>
       <c r="M116" s="2">
-        <v>80.328000000000003</v>
+        <v>12.821999999999999</v>
       </c>
       <c r="N116" s="2">
-        <v>1.504</v>
+        <v>2.11</v>
       </c>
       <c r="O116" s="2">
-        <v>10.4293999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
+        <v>5.3018999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C117" s="2">
-        <v>15.35</v>
+        <v>25.55</v>
       </c>
       <c r="D117" s="2">
-        <v>74.992000000000004</v>
+        <v>78.506</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F117" s="2">
-        <v>-0.89600000000000002</v>
+        <v>-1.51399999999999</v>
       </c>
       <c r="G117" s="2">
-        <v>-3.2940000000000098</v>
+        <v>-1.96399999999999</v>
       </c>
       <c r="H117" s="2">
-        <v>-1.7296</v>
+        <v>-1.7657</v>
       </c>
       <c r="I117" s="2">
         <v>0</v>
       </c>
       <c r="J117" s="2">
-        <v>2.8620000000000001</v>
+        <v>2.3079999999999998</v>
       </c>
       <c r="K117" s="2">
-        <v>2.1339999999999999</v>
+        <v>2.1360000000000001</v>
       </c>
       <c r="L117" s="2">
-        <v>2.5512999999999999</v>
+        <v>2.2259000000000002</v>
       </c>
       <c r="M117" s="2">
-        <v>6.0859999999999896</v>
+        <v>4.1879999999999997</v>
       </c>
       <c r="N117" s="2">
-        <v>3.0819999999999999</v>
+        <v>3.6739999999999999</v>
       </c>
       <c r="O117" s="2">
-        <v>4.2808999999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3.9916</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C118" s="2">
-        <v>86.57</v>
+        <v>25.55</v>
       </c>
       <c r="D118" s="2">
-        <v>82.616</v>
+        <v>82.435999999999893</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F118" s="2">
-        <v>-1.1360000000000099</v>
+        <v>-4.3999999999996903E-2</v>
       </c>
       <c r="G118" s="2">
-        <v>-2.68</v>
+        <v>-0.48599999999999</v>
       </c>
       <c r="H118" s="2">
-        <v>-1.8306</v>
+        <v>-0.19449999999998999</v>
       </c>
       <c r="I118" s="2">
         <v>0</v>
       </c>
       <c r="J118" s="2">
-        <v>2.7879999999999998</v>
+        <v>2.1839999999999899</v>
       </c>
       <c r="K118" s="2">
-        <v>2.504</v>
+        <v>1.958</v>
       </c>
       <c r="L118" s="2">
-        <v>2.6430999999999898</v>
+        <v>2.0629</v>
       </c>
       <c r="M118" s="2">
-        <v>5.3339999999999996</v>
+        <v>2.6120000000000001</v>
       </c>
       <c r="N118" s="2">
-        <v>3.698</v>
+        <v>2.0539999999999998</v>
       </c>
       <c r="O118" s="2">
-        <v>4.4736999999999902</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.2574000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" s="4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C119" s="2">
-        <v>10.62</v>
+        <v>21.8</v>
       </c>
       <c r="D119" s="2">
-        <v>76.584000000000003</v>
+        <v>72.56</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F119" s="2">
-        <v>-0.59799999999999898</v>
+        <v>3.7999999999996703E-2</v>
       </c>
       <c r="G119" s="2">
-        <v>-2.2779999999999898</v>
+        <v>-2.492</v>
       </c>
       <c r="H119" s="2">
-        <v>-1.15359999999999</v>
+        <v>-0.86349999999999705</v>
       </c>
       <c r="I119" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J119" s="2">
-        <v>2.72</v>
+        <v>2.9780000000000002</v>
       </c>
       <c r="K119" s="2">
-        <v>2.278</v>
+        <v>2.3039999999999998</v>
       </c>
       <c r="L119" s="2">
-        <v>2.5219999999999998</v>
+        <v>2.6267999999999998</v>
       </c>
       <c r="M119" s="2">
-        <v>4.9420000000000002</v>
+        <v>5.47</v>
       </c>
       <c r="N119" s="2">
-        <v>2.8879999999999999</v>
+        <v>2.2839999999999998</v>
       </c>
       <c r="O119" s="2">
-        <v>3.6756000000000002</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3.4903</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C120" s="2">
-        <v>11</v>
+        <v>21.8</v>
       </c>
       <c r="D120" s="2">
-        <v>78.156000000000006</v>
+        <v>70.677999999999997</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F120" s="2">
-        <v>-0.85399999999999898</v>
+        <v>-1.2</v>
       </c>
       <c r="G120" s="2">
-        <v>-2.00600000000001</v>
+        <v>-5.6359999999999904</v>
       </c>
       <c r="H120" s="2">
-        <v>-1.1685000000000001</v>
+        <v>-2.9977999999999998</v>
       </c>
       <c r="I120" s="2">
         <v>0</v>
       </c>
       <c r="J120" s="2">
-        <v>2.444</v>
+        <v>3.5739999999999998</v>
       </c>
       <c r="K120" s="2">
-        <v>2.1800000000000002</v>
+        <v>2.4180000000000001</v>
       </c>
       <c r="L120" s="2">
-        <v>2.3220000000000001</v>
+        <v>3.0434999999999999</v>
       </c>
       <c r="M120" s="2">
-        <v>4.3259999999999996</v>
+        <v>9.19</v>
       </c>
       <c r="N120" s="2">
-        <v>3.0619999999999998</v>
+        <v>3.6179999999999999</v>
       </c>
       <c r="O120" s="2">
-        <v>3.4904999999999902</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+        <v>6.0412999999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C121" s="2">
-        <v>194.03</v>
+        <v>21.8</v>
       </c>
       <c r="D121" s="2">
-        <v>80.235999999999905</v>
+        <v>73.394000000000005</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F121" s="2">
-        <v>-3.03</v>
+        <v>-0.65800000000000103</v>
       </c>
       <c r="G121" s="2">
-        <v>-4.75</v>
+        <v>-1.1840000000000099</v>
       </c>
       <c r="H121" s="2">
-        <v>-3.7407999999999899</v>
+        <v>-0.94310000000000105</v>
       </c>
       <c r="I121" s="2">
         <v>0</v>
       </c>
       <c r="J121" s="2">
-        <v>2.488</v>
+        <v>2.9860000000000002</v>
       </c>
       <c r="K121" s="2">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L121" s="2">
-        <v>2.3831999999999902</v>
+        <v>2.8896999999999999</v>
       </c>
       <c r="M121" s="2">
-        <v>7.1660000000000004</v>
+        <v>4.0860000000000003</v>
       </c>
       <c r="N121" s="2">
-        <v>5.28</v>
+        <v>3.4259999999999899</v>
       </c>
       <c r="O121" s="2">
-        <v>6.1239999999999997</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3.83279999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" s="4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C122" s="2">
-        <v>115.09</v>
+        <v>15.35</v>
       </c>
       <c r="D122" s="2">
-        <v>79.947999999999993</v>
+        <v>76.378</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F122" s="2">
-        <v>-0.73199999999999898</v>
+        <v>0.25199999999999501</v>
       </c>
       <c r="G122" s="2">
-        <v>-1.73799999999999</v>
+        <v>-2.94599999999999</v>
       </c>
       <c r="H122" s="2">
-        <v>-1.1026</v>
+        <v>-0.348300000000003</v>
       </c>
       <c r="I122" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J122" s="2">
-        <v>3.1539999999999999</v>
+        <v>3.2779999999999898</v>
       </c>
       <c r="K122" s="2">
-        <v>2.8420000000000001</v>
+        <v>1.804</v>
       </c>
       <c r="L122" s="2">
-        <v>3.0139999999999998</v>
+        <v>2.6635</v>
       </c>
       <c r="M122" s="2">
-        <v>4.694</v>
+        <v>5.7140000000000004</v>
       </c>
       <c r="N122" s="2">
-        <v>3.786</v>
+        <v>1.552</v>
       </c>
       <c r="O122" s="2">
-        <v>4.1166</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3.0118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="4" t="s">
         <v>42</v>
       </c>
@@ -6871,195 +7040,195 @@
         <v>0.8921</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C124" s="2">
-        <v>44.57</v>
+        <v>15.35</v>
       </c>
       <c r="D124" s="2">
-        <v>78.593999999999994</v>
+        <v>74.992000000000004</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F124" s="2">
-        <v>-0.43799999999998801</v>
+        <v>-0.89600000000000002</v>
       </c>
       <c r="G124" s="2">
-        <v>-1.212</v>
+        <v>-3.2940000000000098</v>
       </c>
       <c r="H124" s="2">
-        <v>-0.71899999999999697</v>
+        <v>-1.7296</v>
       </c>
       <c r="I124" s="2">
         <v>0</v>
       </c>
       <c r="J124" s="2">
-        <v>2.8559999999999999</v>
+        <v>2.8620000000000001</v>
       </c>
       <c r="K124" s="2">
-        <v>2.64</v>
+        <v>2.1339999999999999</v>
       </c>
       <c r="L124" s="2">
-        <v>2.7587999999999999</v>
+        <v>2.5512999999999999</v>
       </c>
       <c r="M124" s="2">
-        <v>4.0339999999999998</v>
+        <v>6.0859999999999896</v>
       </c>
       <c r="N124" s="2">
-        <v>3.1579999999999901</v>
+        <v>3.0819999999999999</v>
       </c>
       <c r="O124" s="2">
-        <v>3.4777999999999998</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
+        <v>4.2808999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C125" s="2">
-        <v>25.55</v>
+        <v>15.35</v>
       </c>
       <c r="D125" s="2">
-        <v>78.506</v>
+        <v>72.566000000000003</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F125" s="2">
-        <v>-1.51399999999999</v>
+        <v>-2.09</v>
       </c>
       <c r="G125" s="2">
-        <v>-1.96399999999999</v>
+        <v>-4.6299999999999901</v>
       </c>
       <c r="H125" s="2">
-        <v>-1.7657</v>
+        <v>-3.0731999999999999</v>
       </c>
       <c r="I125" s="2">
         <v>0</v>
       </c>
       <c r="J125" s="2">
-        <v>2.3079999999999998</v>
+        <v>3.6280000000000001</v>
       </c>
       <c r="K125" s="2">
-        <v>2.1360000000000001</v>
+        <v>3.2519999999999998</v>
       </c>
       <c r="L125" s="2">
-        <v>2.2259000000000002</v>
+        <v>3.3839999999999999</v>
       </c>
       <c r="M125" s="2">
-        <v>4.1879999999999997</v>
+        <v>8.0839999999999996</v>
       </c>
       <c r="N125" s="2">
-        <v>3.6739999999999999</v>
+        <v>5.3419999999999996</v>
       </c>
       <c r="O125" s="2">
-        <v>3.9916</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+        <v>6.4572000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C126" s="2">
-        <v>25.55</v>
+        <v>11</v>
       </c>
       <c r="D126" s="2">
-        <v>82.435999999999893</v>
+        <v>77.132000000000005</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F126" s="2">
-        <v>-4.3999999999996903E-2</v>
+        <v>9.1999999999998694E-2</v>
       </c>
       <c r="G126" s="2">
-        <v>-0.48599999999999</v>
+        <v>-3.7379999999999902</v>
       </c>
       <c r="H126" s="2">
-        <v>-0.19449999999998999</v>
+        <v>-0.57090000000000096</v>
       </c>
       <c r="I126" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J126" s="2">
-        <v>2.1839999999999899</v>
+        <v>2.258</v>
       </c>
       <c r="K126" s="2">
-        <v>1.958</v>
+        <v>1.228</v>
       </c>
       <c r="L126" s="2">
-        <v>2.0629</v>
+        <v>1.7261</v>
       </c>
       <c r="M126" s="2">
-        <v>2.6120000000000001</v>
+        <v>5.9960000000000004</v>
       </c>
       <c r="N126" s="2">
-        <v>2.0539999999999998</v>
+        <v>1.4339999999999999</v>
       </c>
       <c r="O126" s="2">
-        <v>2.2574000000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.2968000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C127" s="2">
-        <v>21.8</v>
+        <v>11</v>
       </c>
       <c r="D127" s="2">
-        <v>73.394000000000005</v>
+        <v>76.691999999999993</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F127" s="2">
-        <v>-0.65800000000000103</v>
+        <v>-0.70000000000000195</v>
       </c>
       <c r="G127" s="2">
-        <v>-1.1840000000000099</v>
+        <v>-5.516</v>
       </c>
       <c r="H127" s="2">
-        <v>-0.94310000000000105</v>
+        <v>-2.6941000000000002</v>
       </c>
       <c r="I127" s="2">
         <v>0</v>
       </c>
       <c r="J127" s="2">
-        <v>2.9860000000000002</v>
+        <v>2.61</v>
       </c>
       <c r="K127" s="2">
-        <v>2.75</v>
+        <v>1.5820000000000001</v>
       </c>
       <c r="L127" s="2">
-        <v>2.8896999999999999</v>
+        <v>2.1880000000000002</v>
       </c>
       <c r="M127" s="2">
-        <v>4.0860000000000003</v>
+        <v>8.0259999999999998</v>
       </c>
       <c r="N127" s="2">
-        <v>3.4259999999999899</v>
+        <v>2.282</v>
       </c>
       <c r="O127" s="2">
-        <v>3.83279999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+        <v>4.8821000000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="4" t="s">
         <v>42</v>
       </c>
@@ -7106,195 +7275,195 @@
         <v>0.90349999999999997</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C129" s="2">
-        <v>44.69</v>
+        <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>77.134</v>
+        <v>78.156000000000006</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F129" s="2">
-        <v>-1.3959999999999999</v>
+        <v>-0.85399999999999898</v>
       </c>
       <c r="G129" s="2">
-        <v>-3.99999999999998</v>
+        <v>-2.00600000000001</v>
       </c>
       <c r="H129" s="2">
-        <v>-2.5835999999999899</v>
+        <v>-1.1685000000000001</v>
       </c>
       <c r="I129" s="2">
         <v>0</v>
       </c>
       <c r="J129" s="2">
-        <v>3.0680000000000001</v>
+        <v>2.444</v>
       </c>
       <c r="K129" s="2">
-        <v>2.6640000000000001</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="L129" s="2">
-        <v>2.8565999999999998</v>
+        <v>2.3220000000000001</v>
       </c>
       <c r="M129" s="2">
-        <v>6.9020000000000001</v>
+        <v>4.3259999999999996</v>
       </c>
       <c r="N129" s="2">
-        <v>4.242</v>
+        <v>3.0619999999999998</v>
       </c>
       <c r="O129" s="2">
-        <v>5.4401999999999999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3.4904999999999902</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" s="4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C130" s="2">
-        <v>30.02</v>
+        <v>10.62</v>
       </c>
       <c r="D130" s="2">
-        <v>79.093999999999994</v>
+        <v>77.668000000000006</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F130" s="2">
-        <v>-5.2000000000006701E-2</v>
+        <v>0.20000000000000201</v>
       </c>
       <c r="G130" s="2">
-        <v>-1.31</v>
+        <v>-3.8959999999999799</v>
       </c>
       <c r="H130" s="2">
-        <v>-0.43160000000000098</v>
+        <v>-0.46709999999999002</v>
       </c>
       <c r="I130" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J130" s="2">
-        <v>2.77</v>
+        <v>2.6440000000000001</v>
       </c>
       <c r="K130" s="2">
-        <v>2.16</v>
+        <v>1.3740000000000001</v>
       </c>
       <c r="L130" s="2">
-        <v>2.4542999999999999</v>
+        <v>2.0714999999999901</v>
       </c>
       <c r="M130" s="2">
-        <v>4.056</v>
+        <v>6.54</v>
       </c>
       <c r="N130" s="2">
-        <v>2.3079999999999998</v>
+        <v>1.39</v>
       </c>
       <c r="O130" s="2">
-        <v>2.8858999999999999</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.53859999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C131" s="2">
-        <v>30.02</v>
+        <v>10.62</v>
       </c>
       <c r="D131" s="2">
-        <v>80.335999999999999</v>
+        <v>75.616</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F131" s="2">
-        <v>-8.6000000000012705E-2</v>
+        <v>-0.623999999999995</v>
       </c>
       <c r="G131" s="2">
-        <v>-1.1759999999999999</v>
+        <v>-5.89</v>
       </c>
       <c r="H131" s="2">
-        <v>-0.48560000000001002</v>
+        <v>-2.6906999999999899</v>
       </c>
       <c r="I131" s="2">
         <v>0</v>
       </c>
       <c r="J131" s="2">
-        <v>2.294</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="K131" s="2">
-        <v>1.8180000000000001</v>
+        <v>1.6539999999999999</v>
       </c>
       <c r="L131" s="2">
-        <v>2.0533000000000001</v>
+        <v>2.3944000000000001</v>
       </c>
       <c r="M131" s="2">
-        <v>3.47</v>
+        <v>8.6760000000000002</v>
       </c>
       <c r="N131" s="2">
-        <v>1.99</v>
+        <v>2.3079999999999998</v>
       </c>
       <c r="O131" s="2">
-        <v>2.5388999999999902</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+        <v>5.0850999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C132" s="2">
-        <v>15.35</v>
+        <v>10.62</v>
       </c>
       <c r="D132" s="2">
-        <v>72.566000000000003</v>
+        <v>76.584000000000003</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F132" s="2">
-        <v>-2.09</v>
+        <v>-0.59799999999999898</v>
       </c>
       <c r="G132" s="2">
-        <v>-4.6299999999999901</v>
+        <v>-2.2779999999999898</v>
       </c>
       <c r="H132" s="2">
-        <v>-3.0731999999999999</v>
+        <v>-1.15359999999999</v>
       </c>
       <c r="I132" s="2">
         <v>0</v>
       </c>
       <c r="J132" s="2">
-        <v>3.6280000000000001</v>
+        <v>2.72</v>
       </c>
       <c r="K132" s="2">
-        <v>3.2519999999999998</v>
+        <v>2.278</v>
       </c>
       <c r="L132" s="2">
-        <v>3.3839999999999999</v>
+        <v>2.5219999999999998</v>
       </c>
       <c r="M132" s="2">
-        <v>8.0839999999999996</v>
+        <v>4.9420000000000002</v>
       </c>
       <c r="N132" s="2">
-        <v>5.3419999999999996</v>
+        <v>2.8879999999999999</v>
       </c>
       <c r="O132" s="2">
-        <v>6.4572000000000003</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3.6756000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" s="4" t="s">
         <v>42</v>
       </c>
@@ -7341,7 +7510,7 @@
         <v>2.7589999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" s="4" t="s">
         <v>42</v>
       </c>
@@ -7388,7 +7557,7 @@
         <v>3.0634000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" s="4" t="s">
         <v>42</v>
       </c>
@@ -7435,7 +7604,7 @@
         <v>65.293700000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" s="4" t="s">
         <v>43</v>
       </c>
@@ -7481,8 +7650,12 @@
       <c r="O136" s="2">
         <v>2.16779999999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P136" s="7"/>
+      <c r="Q136" s="7"/>
+      <c r="R136" s="7"/>
+      <c r="S136" s="7"/>
+    </row>
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" s="4" t="s">
         <v>43</v>
       </c>
@@ -7529,7 +7702,7 @@
         <v>1.0779000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" s="4" t="s">
         <v>43</v>
       </c>
@@ -7576,7 +7749,7 @@
         <v>1.4590000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" s="4" t="s">
         <v>44</v>
       </c>
@@ -7623,7 +7796,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" s="4" t="s">
         <v>42</v>
       </c>
@@ -7670,7 +7843,7 @@
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" s="4" t="s">
         <v>44</v>
       </c>
@@ -7726,8 +7899,13 @@
     <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <autoFilter ref="A1:O141" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:O140">
-      <sortCondition ref="A1:A141"/>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="XEKL_Dist"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O132">
+      <sortCondition descending="1" ref="C1:C141"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="C2:C141">
